--- a/testdata/OpenCart.xlsx
+++ b/testdata/OpenCart.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AKAJADHA\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB117F09-B39F-494E-8AE8-5660446D3FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{418BAC15-1F5E-4CF6-81C0-DFC8A9E85761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="2840" windowWidth="14400" windowHeight="7360" xr2:uid="{7EB4931F-DF65-4650-B784-058AC3C560A7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7EB4931F-DF65-4650-B784-058AC3C560A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -414,12 +410,13 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
